--- a/notes/program.xlsx
+++ b/notes/program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Nam\UrbanDataAnalysis-SUTD\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2022-UrbanComputation-SUTD\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40687E7-05CD-43C8-97F3-AF74970549E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDC9C3-CD21-4989-BA95-F00CF0BC805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F86A2E3A-7A28-4E12-B8F5-0FC2A07B1BF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86A2E3A-7A28-4E12-B8F5-0FC2A07B1BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>activity</t>
   </si>
@@ -201,67 +201,61 @@
     <t>Data visualization with ggplot2 packages and other useful R packages</t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>A brief introduction to modelling in data analytics and mining</t>
-  </si>
-  <si>
-    <t>Standard Linear Regression Model on urban data examples</t>
-  </si>
-  <si>
-    <t>Decision Tree Model and Random Forest Algorithm</t>
-  </si>
-  <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
     <t>In class group presentation</t>
   </si>
   <si>
-    <t>Assignment 2</t>
-  </si>
-  <si>
-    <t>Assignment 3</t>
-  </si>
-  <si>
-    <t>Assignment 4</t>
-  </si>
-  <si>
-    <t>Extra curriculum</t>
-  </si>
-  <si>
-    <t>Network visualization and optimization</t>
-  </si>
-  <si>
     <t>Assignment 5</t>
   </si>
   <si>
     <t>Useful R functions and libraries for data manipulation and examples</t>
   </si>
   <si>
-    <t>An example of EDA on spatial urban data</t>
-  </si>
-  <si>
-    <t>Logistic Regression Model on spatial urban data examples</t>
-  </si>
-  <si>
     <t>An example of storing spatial data with PostgreSQL and perform analysis on R, Python and QGIS platform</t>
   </si>
   <si>
-    <t>16-03-2022</t>
-  </si>
-  <si>
     <t>23-03-2022</t>
   </si>
   <si>
     <t>30-03-2022</t>
   </si>
   <si>
-    <t>13-04-2022</t>
-  </si>
-  <si>
     <t>20-04-2022</t>
+  </si>
+  <si>
+    <t>27-04-2022</t>
+  </si>
+  <si>
+    <t>Spatial Data Visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatial Data Visualization with R </t>
+  </si>
+  <si>
+    <t>Assignment for week 5</t>
+  </si>
+  <si>
+    <t>Assignment  for week 3</t>
+  </si>
+  <si>
+    <t>Assignment for week 2</t>
+  </si>
+  <si>
+    <t>Spatial Data Visualization and Computation</t>
+  </si>
+  <si>
+    <t>Example 1 with spatial urban data</t>
+  </si>
+  <si>
+    <t>Example 2 with spatial urban data</t>
+  </si>
+  <si>
+    <t>Introduction to agent based model</t>
+  </si>
+  <si>
+    <t>Introduction to network modelling for urban computation</t>
+  </si>
+  <si>
+    <t>Network computation</t>
   </si>
 </sst>
 </file>
@@ -674,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104734E6-88D9-4914-8884-ED003376101E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F2" s="8">
         <v>20</v>
@@ -745,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F3" s="8">
         <v>10</v>
@@ -765,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F4" s="8">
         <v>60</v>
@@ -785,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F5" s="8">
         <v>30</v>
@@ -805,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F6" s="8">
         <v>30</v>
@@ -825,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F7" s="8">
         <v>10</v>
@@ -845,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="F8" s="8">
         <v>20</v>
@@ -865,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8">
         <v>30</v>
@@ -885,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
@@ -896,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>42</v>
@@ -905,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8">
         <v>30</v>
@@ -925,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8">
         <v>60</v>
@@ -945,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F13" s="8">
         <v>30</v>
@@ -956,16 +950,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14">
         <v>3</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F14" s="14">
         <v>60</v>
@@ -976,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>49</v>
@@ -985,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F15" s="8">
         <v>90</v>
@@ -1005,33 +999,33 @@
         <v>3</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F16" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>72</v>
+      <c r="E17" s="15">
+        <v>44716</v>
       </c>
       <c r="F17" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1044,14 +1038,14 @@
       <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>72</v>
+      <c r="E18" s="15">
+        <v>44716</v>
       </c>
       <c r="F18" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1064,14 +1058,14 @@
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>72</v>
+      <c r="E19" s="15">
+        <v>44716</v>
       </c>
       <c r="F19" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1084,182 +1078,175 @@
       <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>72</v>
+      <c r="E20" s="15">
+        <v>44716</v>
       </c>
       <c r="F20" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="14">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8">
         <v>5</v>
       </c>
       <c r="E21" s="15">
-        <v>44657</v>
-      </c>
-      <c r="F21" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44664</v>
+      </c>
+      <c r="F21" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8">
         <v>5</v>
       </c>
       <c r="E22" s="15">
-        <v>44657</v>
+        <v>44664</v>
       </c>
       <c r="F22" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="14">
         <v>6</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F23" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="8">
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F24" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="8">
         <v>6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F25" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D26" s="8">
         <v>6</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F26" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D27" s="14">
         <v>7</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F27" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D28" s="8">
         <v>7</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>63</v>
+      <c r="G28" s="10">
+        <f>SUM(F2:F28)</f>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
